--- a/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-A23-029.xlsx
+++ b/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-A23-029.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10434.430000</t>
+          <t>20817.930000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -524,7 +524,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>836.30</t>
+          <t>1170.82</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>582.57</t>
+          <t>1068.04</t>
         </is>
       </c>
     </row>
@@ -654,26 +654,94 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>William Jinks</t>
+          <t>Sunny Jinks</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>113.880000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>9110.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Timothy Mohamed</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>64.730000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>453.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>William Jinks</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>40.00</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>hr</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>166.810000</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>6672.40</t>
         </is>
